--- a/data/CityChanges.xlsx
+++ b/data/CityChanges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/r2016718_novaims_unl_pt/Documents/Nova IMS/Mestrado/2º semestre/Business Cases/BC3/BCDS_Proj2_MktBasket/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitRep\BCDS_Proj2_MktBasket\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7D1C3257-BA28-4CC3-A7B7-F564325E4049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E9493EB-D142-4545-88C7-6E520EE92CF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF0EA5-B3AA-400F-8A36-929B981B254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CC41C6C8-3FE3-4120-8586-B9362BD68928}"/>
+    <workbookView xWindow="5385" yWindow="2925" windowWidth="20235" windowHeight="11400" xr2:uid="{CC41C6C8-3FE3-4120-8586-B9362BD68928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>City</t>
   </si>
@@ -105,12 +105,21 @@
   </si>
   <si>
     <t>Pano Deytera</t>
+  </si>
+  <si>
+    <t>Lakatameia</t>
+  </si>
+  <si>
+    <t>Geri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,8 +157,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,18 +476,18 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,15 +504,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>35.171300000000002</v>
       </c>
-      <c r="C2" s="1">
-        <v>33332770</v>
+      <c r="C2" s="2">
+        <v>33.332769999999996</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -512,7 +521,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -529,7 +538,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -546,7 +555,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -563,7 +572,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -574,14 +583,14 @@
         <v>33.423146000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>12.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -591,13 +600,13 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -608,14 +617,14 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>12.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -625,13 +634,13 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>12.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -648,8 +657,8 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -699,8 +708,8 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -716,8 +725,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -733,24 +742,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35.117565999999997</v>
+        <v>35.118960000000001</v>
       </c>
       <c r="C16">
-        <v>33.292110999999998</v>
+        <v>33.316887000000001</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>13.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>

--- a/data/CityChanges.xlsx
+++ b/data/CityChanges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\GitRep\BCDS_Proj2_MktBasket\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveeduisegiunl-my.sharepoint.com/personal/r2016718_novaims_unl_pt/Documents/Nova IMS/Mestrado/2º semestre/Business Cases/BC3/BCDS_Proj2_MktBasket/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF0EA5-B3AA-400F-8A36-929B981B254F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{7D1C3257-BA28-4CC3-A7B7-F564325E4049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E9493EB-D142-4545-88C7-6E520EE92CF8}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="2925" windowWidth="20235" windowHeight="11400" xr2:uid="{CC41C6C8-3FE3-4120-8586-B9362BD68928}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CC41C6C8-3FE3-4120-8586-B9362BD68928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>City</t>
   </si>
@@ -105,21 +105,12 @@
   </si>
   <si>
     <t>Pano Deytera</t>
-  </si>
-  <si>
-    <t>Lakatameia</t>
-  </si>
-  <si>
-    <t>Geri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,8 +148,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,18 +467,18 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,15 +495,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
         <v>35.171300000000002</v>
       </c>
-      <c r="C2" s="2">
-        <v>33.332769999999996</v>
+      <c r="C2" s="1">
+        <v>33332770</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -521,7 +512,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -538,7 +529,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -555,7 +546,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -572,7 +563,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -583,14 +574,14 @@
         <v>33.423146000000003</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7">
@@ -600,13 +591,13 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -617,14 +608,14 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>12.1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -634,13 +625,13 @@
         <v>33.316887000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>12.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -657,8 +648,8 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11">
@@ -674,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -691,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -708,8 +699,8 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14">
@@ -725,8 +716,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B15">
@@ -742,24 +733,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>35.118960000000001</v>
+        <v>35.117565999999997</v>
       </c>
       <c r="C16">
-        <v>33.316887000000001</v>
+        <v>33.292110999999998</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>13.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
